--- a/cf_strategy/questions.xlsx
+++ b/cf_strategy/questions.xlsx
@@ -33015,97 +33015,97 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,questions18!H2-1)</f>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f ca="1">RANDBETWEEN(0,questions18!H3-1)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f ca="1">RANDBETWEEN(0,questions18!H4-1)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f ca="1">RANDBETWEEN(0,questions18!H5-1)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,questions18!H6-1)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,questions18!H7-1)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f ca="1">RANDBETWEEN(0,questions18!H8-1)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f ca="1">RANDBETWEEN(0,questions18!H9-1)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,questions18!H10-1)</f>
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f ca="1">RANDBETWEEN(0,questions18!H11-1)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f ca="1">RANDBETWEEN(0,questions18!H12-1)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f ca="1">RANDBETWEEN(0,questions18!H13-1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f ca="1">RANDBETWEEN(0,questions18!H14-1)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,questions18!H15-1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,questions18!H16-1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,questions18!H17-1)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -33117,43 +33117,43 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f ca="1">RANDBETWEEN(0,questions18!H19-1)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">RANDBETWEEN(0,questions18!H20-1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f ca="1">RANDBETWEEN(0,questions18!H21-1)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f ca="1">RANDBETWEEN(0,questions18!H22-1)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f ca="1">RANDBETWEEN(0,questions18!H23-1)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f ca="1">RANDBETWEEN(0,questions18!H24-1)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f ca="1">RANDBETWEEN(0,questions18!H25-1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -33165,73 +33165,73 @@
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f ca="1">RANDBETWEEN(0,questions18!H27-1)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,questions18!H28-1)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f ca="1">RANDBETWEEN(0,questions18!H29-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f ca="1">RANDBETWEEN(0,questions18!H30-1)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f ca="1">RANDBETWEEN(0,questions18!H31-1)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f ca="1">RANDBETWEEN(0,questions18!H32-1)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f ca="1">RANDBETWEEN(0,questions18!H33-1)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f ca="1">RANDBETWEEN(0,questions18!H34-1)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,questions18!H35-1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f ca="1">RANDBETWEEN(0,questions18!H36-1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f ca="1">RANDBETWEEN(0,questions18!H37-1)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f ca="1">RANDBETWEEN(0,questions18!H38-1)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -33243,61 +33243,61 @@
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f ca="1">RANDBETWEEN(0,questions18!H40-1)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f ca="1">RANDBETWEEN(0,questions18!H41-1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f ca="1">RANDBETWEEN(0,questions18!H42-1)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f ca="1">RANDBETWEEN(0,questions18!H43-1)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f ca="1">RANDBETWEEN(0,questions18!H44-1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f ca="1">RANDBETWEEN(0,questions18!H45-1)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f ca="1">RANDBETWEEN(0,questions18!H46-1)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f ca="1">RANDBETWEEN(0,questions18!H47-1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f ca="1">RANDBETWEEN(0,questions18!H48-1)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f ca="1">RANDBETWEEN(0,questions18!H49-1)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -33321,43 +33321,43 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f ca="1">RANDBETWEEN(0,questions18!H53-1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f ca="1">RANDBETWEEN(0,questions18!H54-1)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f ca="1">RANDBETWEEN(0,questions18!H55-1)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f ca="1">RANDBETWEEN(0,questions18!H56-1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f ca="1">RANDBETWEEN(0,questions18!H57-1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f ca="1">RANDBETWEEN(0,questions18!H58-1)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f ca="1">RANDBETWEEN(0,questions18!H59-1)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -33369,7 +33369,7 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f ca="1">RANDBETWEEN(0,questions18!H61-1)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
@@ -33381,19 +33381,19 @@
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f ca="1">RANDBETWEEN(0,questions18!H63-1)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f ca="1">RANDBETWEEN(0,questions18!H64-1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f ca="1">RANDBETWEEN(0,questions18!H65-1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -34270,23 +34270,23 @@
         <v>1</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U16" si="4">IF(AND(C3=0,K3=0),0,1)</f>
+        <f t="shared" ref="U3:U15" si="4">IF(AND(C3=0,K3=0),0,1)</f>
         <v>1</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V16" si="5">IF(AND(D3=0,L3=0),0,1)</f>
+        <f t="shared" ref="V3:V15" si="5">IF(AND(D3=0,L3=0),0,1)</f>
         <v>1</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W16" si="6">IF(AND(E3=0,M3=0),0,1)</f>
+        <f t="shared" ref="W3:W15" si="6">IF(AND(E3=0,M3=0),0,1)</f>
         <v>1</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X16" si="7">IF(AND(F3=0,N3=0),0,1)</f>
+        <f t="shared" ref="X3:X15" si="7">IF(AND(F3=0,N3=0),0,1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y16" si="8">IF(AND(G3=0,O3=0),0,1)</f>
+        <f t="shared" ref="Y3:Y15" si="8">IF(AND(G3=0,O3=0),0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -35311,7 +35311,7 @@
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(0,H2-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <f>INDEX(original12!$J2:$N2,randomization!H2)</f>
@@ -35339,7 +35339,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(0,P2-1)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>0.5</v>
@@ -35398,12 +35398,12 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="1">SUM(B3:G3)</f>
+        <f t="shared" ref="H3:H15" si="1">SUM(B3:G3)</f>
         <v>12</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I43" ca="1" si="2">RANDBETWEEN(0,H3-1)</f>
-        <v>7</v>
+        <f t="shared" ref="I3:I15" ca="1" si="2">RANDBETWEEN(0,H3-1)</f>
+        <v>11</v>
       </c>
       <c r="J3">
         <f>INDEX(original12!$J3:$N3,randomization!H3)</f>
@@ -35426,12 +35426,12 @@
         <v>4</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P16" si="3">SUM(J3:O3)</f>
+        <f t="shared" ref="P3:P15" si="3">SUM(J3:O3)</f>
         <v>12</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q43" ca="1" si="4">RANDBETWEEN(0,P3-1)</f>
-        <v>10</v>
+        <f t="shared" ref="Q3:Q15" ca="1" si="4">RANDBETWEEN(0,P3-1)</f>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0.5</v>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f>INDEX(original12!$J4:$N4,randomization!H4)</f>
@@ -35523,7 +35523,7 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R4">
         <v>0.5</v>
@@ -35587,7 +35587,7 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <f>INDEX(original12!$J5:$N5,randomization!H5)</f>
@@ -35615,7 +35615,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R5">
         <v>0.5</v>
@@ -35679,7 +35679,7 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <f>INDEX(original12!$J6:$N6,randomization!H6)</f>
@@ -35799,7 +35799,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -35863,7 +35863,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f>INDEX(original12!$J8:$N8,randomization!H8)</f>
@@ -35891,7 +35891,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R8">
         <v>0.5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <f>INDEX(original12!$J9:$N9,randomization!H9)</f>
@@ -35983,7 +35983,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0.5</v>
@@ -36047,7 +36047,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <f>INDEX(original12!$J10:$N10,randomization!H10)</f>
@@ -36075,7 +36075,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R10">
         <v>0.5</v>
@@ -36139,7 +36139,7 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <f>INDEX(original12!$J11:$N11,randomization!H11)</f>
@@ -36231,7 +36231,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f>INDEX(original12!$J12:$N12,randomization!H12)</f>
@@ -36259,7 +36259,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12">
         <v>0.5</v>
@@ -36323,7 +36323,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <f>INDEX(original12!$J13:$N13,randomization!H13)</f>
@@ -36351,7 +36351,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R13">
         <v>0.5</v>
@@ -36415,7 +36415,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <f>INDEX(original12!$J14:$N14,randomization!H14)</f>
@@ -36443,7 +36443,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R14">
         <v>0.5</v>
@@ -36507,7 +36507,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15">
         <f>INDEX(original12!$J15:$N15,randomization!H15)</f>
@@ -36535,7 +36535,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R15">
         <v>0.5</v>
